--- a/第11组/11项目计划表 .xlsx
+++ b/第11组/11项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.11 第七周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完善APP的UI设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,6 +183,30 @@
   </si>
   <si>
     <t>编辑管理员的UI设计文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第七周周 三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论网络交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论网络交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论网络交互，编辑网络交互文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,11 +287,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,12 +636,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -698,26 +718,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -794,26 +814,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -890,26 +910,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -986,26 +1006,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1026,9 +1046,11 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1036,9 +1058,11 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1046,9 +1070,11 @@
         <v>22</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1056,9 +1082,11 @@
         <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1066,26 +1094,113 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A38:D38"/>
+  <mergeCells count="12">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A54:D55"/>
     <mergeCell ref="A45:D46"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="A29:D29"/>
@@ -1095,6 +1210,7 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表 .xlsx
+++ b/第11组/11项目计划表 .xlsx
@@ -190,23 +190,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.11 第七周周 三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.11 第七周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论网络交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论网络交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论网络交互，编辑网络交互文档</t>
+    <t>讨论数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论数据库，做数据库逻辑图形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周 三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
@@ -1160,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
@@ -1170,7 +1170,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
@@ -1199,17 +1199,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/第11组/11项目计划表 .xlsx
+++ b/第11组/11项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1146,9 @@
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1152,7 +1158,9 @@
       <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -1162,7 +1170,9 @@
       <c r="B51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1172,7 +1182,9 @@
       <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1182,7 +1194,9 @@
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1199,18 +1213,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表 .xlsx
+++ b/第11组/11项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.18 第七周周 四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C58" sqref="C58:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1211,20 +1223,116 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A54:D55"/>
     <mergeCell ref="A45:D46"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
